--- a/src/main/resources/DANH SÁCH SV NHẬN HB HỌC KỲ.xlsx
+++ b/src/main/resources/DANH SÁCH SV NHẬN HB HỌC KỲ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vando\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vando\Documents\GitHub\admin_be\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE09B59-2DD6-490A-9C46-8050F8BF0A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4345C8A7-9384-49B4-AC82-A02F41740438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Tong hop" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tong hop'!$A$9:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tong hop'!$A$11:$K$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tong hop'!$A$1:$J$678</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tong hop'!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tong hop'!$11:$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -244,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -267,15 +267,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -504,6 +495,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,10 +510,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,21 +910,21 @@
   <dimension ref="A1:J676"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13" style="55" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="27" style="56" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="20" style="55" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="57" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="55" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="57" customWidth="1"/>
+    <col min="10" max="10" width="18" style="58" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="59"/>
@@ -952,32 +943,32 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="20.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="20.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="20.25">
       <c r="A4" s="60"/>
@@ -992,32 +983,32 @@
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="20.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1">
       <c r="A7" s="1"/>
@@ -1031,108 +1022,85 @@
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="9" spans="1:10" s="21" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A9" s="15" t="s">
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="11" spans="1:10" s="21" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="21" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A10" s="22" t="s">
+    <row r="12" spans="1:10" s="21" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H12" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="37" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A11" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="36"/>
-    </row>
+    <row r="13" spans="1:10" s="37" customFormat="1" ht="21.75" customHeight="1"/>
     <row r="14" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
@@ -3491,7 +3459,7 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.31496062992125984" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
